--- a/Inputs_Data_largePlans/NMR_Comparison_raw.xlsx
+++ b/Inputs_Data_largePlans/NMR_Comparison_raw.xlsx
@@ -1506,7 +1506,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0762727446670426</v>
+        <v>0.1466303082112313</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -1515,7 +1515,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07482017323847118</v>
+        <v>0.14517773678265986</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -1541,7 +1541,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.028693347989759123</v>
+        <v>0.05908295562044133</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1550,7 +1550,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.027371419418330552</v>
+        <v>0.05776102704901276</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -1576,19 +1576,19 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01771239378536319</v>
+        <v>0.03342525047639681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06996994305777635</v>
+        <v>0.07168097844581409</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.016523322356791763</v>
+        <v>0.03223617904782538</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06878087162920492</v>
+        <v>0.07049190701724266</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1611,19 +1611,19 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01395503382389378</v>
+        <v>0.027249271209058085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02531359924283664</v>
+        <v>0.032879018628217654</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.013250890966750924</v>
+        <v>0.026545128351915227</v>
       </c>
       <c r="J5" t="n">
-        <v>0.024257384957122353</v>
+        <v>0.03182280434250337</v>
       </c>
       <c r="K5" t="n">
         <v>0.0</v>
@@ -1646,22 +1646,22 @@
         <v>0.04663985714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06813444536615257</v>
+        <v>0.07772593116931138</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06196558500289945</v>
+        <v>0.06928553270324059</v>
       </c>
       <c r="H6" t="n">
-        <v>0.10792005153094765</v>
+        <v>0.09274520992296315</v>
       </c>
       <c r="I6" t="n">
-        <v>0.012485896423891286</v>
+        <v>0.022077382227050104</v>
       </c>
       <c r="J6" t="n">
-        <v>0.015325727860042309</v>
+        <v>0.022645675560383438</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06128019438809051</v>
+        <v>0.046105352780106</v>
       </c>
     </row>
     <row r="7">
@@ -1681,22 +1681,22 @@
         <v>0.048720294539991826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09943716743888666</v>
+        <v>0.10332651597309686</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05796188975034696</v>
+        <v>0.061612630190475304</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06814061656038106</v>
+        <v>0.06528369335397097</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008790130667573778</v>
+        <v>0.012679479201783984</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009241595210355136</v>
+        <v>0.012892335650483481</v>
       </c>
       <c r="K7" t="n">
-        <v>0.019420322020389232</v>
+        <v>0.016563398813979145</v>
       </c>
     </row>
     <row r="8">
@@ -1716,22 +1716,22 @@
         <v>0.07882907633849179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.14765419458796572</v>
+        <v>0.150967163560386</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09844644184656982</v>
+        <v>0.10202334120438364</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0908466852667871</v>
+        <v>0.09191644125283455</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00926474641811294</v>
+        <v>0.012577715390533241</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009115435613435802</v>
+        <v>0.012692334971249627</v>
       </c>
       <c r="K8" t="n">
-        <v>0.012017608928295318</v>
+        <v>0.013087364914342764</v>
       </c>
     </row>
     <row r="9">
@@ -1751,22 +1751,22 @@
         <v>0.10849313705099367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.22303020451456881</v>
+        <v>0.2268151839296687</v>
       </c>
       <c r="G9" t="n">
-        <v>0.17508184171287425</v>
+        <v>0.17989187641212898</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11995813670775707</v>
+        <v>0.12486401137310138</v>
       </c>
       <c r="I9" t="n">
-        <v>0.012401711049333082</v>
+        <v>0.016186690464432964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.011401197286328355</v>
+        <v>0.01621123198558308</v>
       </c>
       <c r="K9" t="n">
-        <v>0.011464999656763394</v>
+        <v>0.016370874322107702</v>
       </c>
     </row>
     <row r="10">
@@ -1786,22 +1786,22 @@
         <v>0.19596484615011464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.28542558771400756</v>
+        <v>0.288169597612782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2759359319591457</v>
+        <v>0.2799438817363919</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2074429919866923</v>
+        <v>0.21201018365581023</v>
       </c>
       <c r="I10" t="n">
-        <v>0.013253365150822581</v>
+        <v>0.015997375049597015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.011948239165669967</v>
+        <v>0.015956188942916172</v>
       </c>
       <c r="K10" t="n">
-        <v>0.011478145836577653</v>
+        <v>0.016045337505695582</v>
       </c>
     </row>
     <row r="11">
@@ -1821,22 +1821,22 @@
         <v>0.38685835897295157</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4095537146031576</v>
+        <v>0.40973876582866564</v>
       </c>
       <c r="G11" t="n">
-        <v>0.41228061646351544</v>
+        <v>0.4125978763973669</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3921556929688621</v>
+        <v>0.3924634800198235</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005461395697266789</v>
+        <v>0.005646446922774812</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0052682278961003704</v>
+        <v>0.005585487829951845</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005297333995910509</v>
+        <v>0.005605121046871938</v>
       </c>
     </row>
     <row r="12">
@@ -1856,22 +1856,22 @@
         <v>0.3805106914593575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.37985412625617215</v>
+        <v>0.37991739201412433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.38262096372119</v>
+        <v>0.38280338931491203</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3855465183559515</v>
+        <v>0.3858094246381016</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0053032375051763935</v>
+        <v>0.005366503263128616</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005150005308670003</v>
+        <v>0.005332430902392065</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0050358268965939946</v>
+        <v>0.005298733178744101</v>
       </c>
     </row>
     <row r="13">
@@ -2276,7 +2276,7 @@
         <v>0.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.027280530973451327</v>
+        <v>0.05386</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -2285,7 +2285,7 @@
         <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.027280530973451327</v>
+        <v>0.05386</v>
       </c>
       <c r="J24" t="n">
         <v>0.0</v>
@@ -2311,7 +2311,7 @@
         <v>0.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01595100399294647</v>
+        <v>0.014010682254697286</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -2320,7 +2320,7 @@
         <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01595100399294647</v>
+        <v>0.014010682254697286</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
@@ -2346,19 +2346,19 @@
         <v>0.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007817460210564123</v>
+        <v>0.009004759916492694</v>
       </c>
       <c r="G26" t="n">
-        <v>0.027538725663716814</v>
+        <v>0.059695200000000004</v>
       </c>
       <c r="H26" t="n">
         <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007817460210564123</v>
+        <v>0.009004759916492694</v>
       </c>
       <c r="J26" t="n">
-        <v>0.027538725663716814</v>
+        <v>0.059695200000000004</v>
       </c>
       <c r="K26" t="n">
         <v>0.0</v>
@@ -2381,19 +2381,19 @@
         <v>0.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003801058933018085</v>
+        <v>0.006157578288100208</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01599813486835438</v>
+        <v>0.01498157828810021</v>
       </c>
       <c r="H27" t="n">
         <v>0.0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.003801058933018085</v>
+        <v>0.006157578288100208</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01599813486835438</v>
+        <v>0.01498157828810021</v>
       </c>
       <c r="K27" t="n">
         <v>0.0</v>
@@ -2416,22 +2416,22 @@
         <v>0.128</v>
       </c>
       <c r="F28" t="n">
-        <v>0.15869354376086045</v>
+        <v>0.15993758185391962</v>
       </c>
       <c r="G28" t="n">
-        <v>0.13568954362807822</v>
+        <v>0.1346255114822547</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15612761061946903</v>
+        <v>0.20100400000000002</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0037414733891955273</v>
+        <v>0.004985511482254697</v>
       </c>
       <c r="J28" t="n">
-        <v>0.007689543628078209</v>
+        <v>0.006625511482254697</v>
       </c>
       <c r="K28" t="n">
-        <v>0.028127610619469025</v>
+        <v>0.073004</v>
       </c>
     </row>
     <row r="29">
@@ -2451,22 +2451,22 @@
         <v>0.1283988247119771</v>
       </c>
       <c r="F29" t="n">
-        <v>0.24950486377751743</v>
+        <v>0.25021432926447773</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1320952479833507</v>
+        <v>0.13281945101677878</v>
       </c>
       <c r="H29" t="n">
-        <v>0.14447423375589952</v>
+        <v>0.1449722510167788</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0037111608178414025</v>
+        <v>0.00442062630480167</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0036964232713735945</v>
+        <v>0.00442062630480167</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01607540904392241</v>
+        <v>0.016573426304801672</v>
       </c>
     </row>
     <row r="30">
@@ -2486,22 +2486,22 @@
         <v>0.151053413747777</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2111908063940815</v>
+        <v>0.2121349809716212</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1817268900164305</v>
+        <v>0.18269801021547533</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1587272054733702</v>
+        <v>0.1573859398438104</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003748351518493717</v>
+        <v>0.004692526096033403</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0037214058969885894</v>
+        <v>0.004692526096033403</v>
       </c>
       <c r="K30" t="n">
-        <v>0.007673791725593193</v>
+        <v>0.006332526096033403</v>
       </c>
     </row>
     <row r="31">
@@ -2521,22 +2521,22 @@
         <v>0.18617211287404314</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2548667353972028</v>
+        <v>0.25544115400185397</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3234885784233294</v>
+        <v>0.3240869911217421</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18986126950054916</v>
+        <v>0.19047211287404314</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0037255813953488374</v>
+        <v>0.0043</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0037015873015873017</v>
+        <v>0.0043</v>
       </c>
       <c r="K31" t="n">
-        <v>0.003689156626506024</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="32">
@@ -2556,22 +2556,22 @@
         <v>0.23794345063919758</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2910489062438283</v>
+        <v>0.2916004213953435</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2910117421500604</v>
+        <v>0.2916004213953435</v>
       </c>
       <c r="H32" t="n">
-        <v>0.24163797118714278</v>
+        <v>0.24224345063919758</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0037484848484848486</v>
+        <v>0.0043</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0037113207547169813</v>
+        <v>0.0043</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0036945205479452055</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="33">
@@ -2591,22 +2591,22 @@
         <v>0.676460878247699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6925463454756369</v>
+        <v>0.6930550411278108</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6924806225231597</v>
+        <v>0.6930550411278108</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6801624655492863</v>
+        <v>0.6807608782476989</v>
       </c>
       <c r="I33" t="n">
-        <v>0.003791304347826087</v>
+        <v>0.0043</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0037255813953488374</v>
+        <v>0.0043</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0037015873015873017</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="34">
@@ -2626,22 +2626,22 @@
         <v>0.6280290411278108</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6319290411278108</v>
+        <v>0.6323290411278107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6317775259762957</v>
+        <v>0.6323290411278107</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6317403618825278</v>
+        <v>0.6323290411278107</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0039000000000000003</v>
+        <v>0.0043</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0037484848484848486</v>
+        <v>0.0043</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0037113207547169813</v>
+        <v>0.0043</v>
       </c>
     </row>
     <row r="35">
@@ -2661,7 +2661,7 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.155527171339662</v>
+        <v>0.18479969951411176</v>
       </c>
       <c r="G35" t="n">
         <v>0.0</v>
@@ -2670,7 +2670,7 @@
         <v>0.0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.155527171339662</v>
+        <v>0.18479969951411176</v>
       </c>
       <c r="J35" t="n">
         <v>0.0</v>
@@ -2696,7 +2696,7 @@
         <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.043315587204378565</v>
+        <v>0.10166092194842105</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -2705,7 +2705,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.043315587204378565</v>
+        <v>0.10166092194842105</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -2731,19 +2731,19 @@
         <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.022626008082321913</v>
+        <v>0.03619563179046619</v>
       </c>
       <c r="G37" t="n">
-        <v>0.13870729960979827</v>
+        <v>0.08791327077377203</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.022626008082321913</v>
+        <v>0.03619563179046619</v>
       </c>
       <c r="J37" t="n">
-        <v>0.13870729960979827</v>
+        <v>0.08791327077377203</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -2766,19 +2766,19 @@
         <v>0.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.015856868287486895</v>
+        <v>0.023377761448086346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03200880020248029</v>
+        <v>0.03347983941985077</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.015856868287486895</v>
+        <v>0.023377761448086346</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03200880020248029</v>
+        <v>0.03347983941985077</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -2801,22 +2801,22 @@
         <v>0.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.012683242862793199</v>
+        <v>0.017692453156191945</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01838743954934491</v>
+        <v>0.019069333156191946</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11958880146592546</v>
+        <v>0.04781642817354446</v>
       </c>
       <c r="I39" t="n">
-        <v>0.012683242862793199</v>
+        <v>0.017692453156191945</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01838743954934491</v>
+        <v>0.019069333156191946</v>
       </c>
       <c r="K39" t="n">
-        <v>0.11958880146592546</v>
+        <v>0.04781642817354446</v>
       </c>
     </row>
     <row r="40">
@@ -2836,22 +2836,22 @@
         <v>0.0025000000000000005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.014091859591929911</v>
+        <v>0.018530657197462157</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01653009849720028</v>
+        <v>0.019169226543560645</v>
       </c>
       <c r="H40" t="n">
-        <v>0.030772992488551316</v>
+        <v>0.025651866034047635</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01159185959192991</v>
+        <v>0.016030657197462155</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01403009849720028</v>
+        <v>0.016669226543560647</v>
       </c>
       <c r="K40" t="n">
-        <v>0.028272992488551318</v>
+        <v>0.023151866034047636</v>
       </c>
     </row>
     <row r="41">
@@ -2871,22 +2871,22 @@
         <v>0.010374999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.15796003736971417</v>
+        <v>0.16358977728037535</v>
       </c>
       <c r="G41" t="n">
-        <v>0.025047858852005188</v>
+        <v>0.030558636022524517</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02976367601029288</v>
+        <v>0.03150944013751822</v>
       </c>
       <c r="I41" t="n">
-        <v>0.014210037369714195</v>
+        <v>0.01983977728037536</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01467285885200519</v>
+        <v>0.02018363602252452</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01938867601029288</v>
+        <v>0.021134440137518216</v>
       </c>
     </row>
     <row r="42">
@@ -2906,22 +2906,22 @@
         <v>0.02436178012952881</v>
       </c>
       <c r="F42" t="n">
-        <v>0.24851325529990376</v>
+        <v>0.2566826762428555</v>
       </c>
       <c r="G42" t="n">
-        <v>0.056461805940565615</v>
+        <v>0.06673445763229069</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04644823757181031</v>
+        <v>0.056282533578034775</v>
       </c>
       <c r="I42" t="n">
-        <v>0.02319878093253</v>
+        <v>0.03136820187548175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.021169174747207014</v>
+        <v>0.0314418264389321</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0220864574422815</v>
+        <v>0.031920753448505965</v>
       </c>
     </row>
     <row r="43">
@@ -2941,22 +2941,22 @@
         <v>0.14145858143986056</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3235177763911213</v>
+        <v>0.32956878125506134</v>
       </c>
       <c r="G43" t="n">
-        <v>0.31669553145193824</v>
+        <v>0.32552235059459333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.16335737615576207</v>
+        <v>0.17310313216333206</v>
       </c>
       <c r="I43" t="n">
-        <v>0.025449658491235785</v>
+        <v>0.03150066335517581</v>
       </c>
       <c r="J43" t="n">
-        <v>0.022550285892478223</v>
+        <v>0.031377105035133274</v>
       </c>
       <c r="K43" t="n">
-        <v>0.021898794715901494</v>
+        <v>0.03164455072347151</v>
       </c>
     </row>
     <row r="44">
@@ -2976,22 +2976,22 @@
         <v>0.22092445215974643</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2733594706405008</v>
+        <v>0.2726569405792574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.27379259504518794</v>
+        <v>0.27247406330078844</v>
       </c>
       <c r="H44" t="n">
-        <v>0.22429821641693765</v>
+        <v>0.22219499968610854</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0020970552153141693</v>
+        <v>0.0013945251540707201</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002530179620001319</v>
+        <v>0.0012116478756018206</v>
       </c>
       <c r="K44" t="n">
-        <v>0.003373764257191202</v>
+        <v>0.0012705475263620986</v>
       </c>
     </row>
     <row r="45">
@@ -3011,22 +3011,22 @@
         <v>0.2548617981829562</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2541498469071055</v>
+        <v>0.25382901640812683</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2547077056620046</v>
+        <v>0.2537267993259172</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2574256487371345</v>
+        <v>0.2559262380698669</v>
       </c>
       <c r="I45" t="n">
-        <v>0.001588580639042983</v>
+        <v>0.0012677501400642909</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0021464393939421</v>
+        <v>0.0011655330578546346</v>
       </c>
       <c r="K45" t="n">
-        <v>0.002563850554178367</v>
+        <v>0.001064439886910746</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs_Data_largePlans/NMR_Comparison_raw.xlsx
+++ b/Inputs_Data_largePlans/NMR_Comparison_raw.xlsx
@@ -1541,7 +1541,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05908295562044133</v>
+        <v>0.05331039138987579</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -1550,7 +1550,7 @@
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05776102704901276</v>
+        <v>0.05198846281844722</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -1576,19 +1576,19 @@
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03342525047639681</v>
+        <v>0.03054070656352176</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07168097844581409</v>
+        <v>0.1453078904717736</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03223617904782538</v>
+        <v>0.029351635134950333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07049190701724266</v>
+        <v>0.14411881904320215</v>
       </c>
       <c r="K4" t="n">
         <v>0.0</v>
@@ -1611,19 +1611,19 @@
         <v>0.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.027249271209058085</v>
+        <v>0.025129467108006374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.032879018628217654</v>
+        <v>0.04659224249893037</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.026545128351915227</v>
+        <v>0.024425324250863516</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03182280434250337</v>
+        <v>0.04553602821321608</v>
       </c>
       <c r="K5" t="n">
         <v>0.0</v>
@@ -1646,22 +1646,22 @@
         <v>0.04663985714285714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07772593116931138</v>
+        <v>0.07657326248711238</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06928553270324059</v>
+        <v>0.07040603735437492</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09274520992296315</v>
+        <v>0.18770442345298777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.022077382227050104</v>
+        <v>0.020924713544851106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.022645675560383438</v>
+        <v>0.023766180211517773</v>
       </c>
       <c r="K6" t="n">
-        <v>0.046105352780106</v>
+        <v>0.14106456631013062</v>
       </c>
     </row>
     <row r="7">
@@ -1681,22 +1681,22 @@
         <v>0.048720294539991826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.10332651597309686</v>
+        <v>0.108168586394391</v>
       </c>
       <c r="G7" t="n">
-        <v>0.061612630190475304</v>
+        <v>0.06751898285526695</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06528369335397097</v>
+        <v>0.08954536183624093</v>
       </c>
       <c r="I7" t="n">
-        <v>0.012679479201783984</v>
+        <v>0.017521549623078135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.012892335650483481</v>
+        <v>0.01879868831527512</v>
       </c>
       <c r="K7" t="n">
-        <v>0.016563398813979145</v>
+        <v>0.0408250672962491</v>
       </c>
     </row>
     <row r="8">
@@ -1716,22 +1716,22 @@
         <v>0.07882907633849179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.150967163560386</v>
+        <v>0.15541945590358547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.10202334120438364</v>
+        <v>0.1071633510318814</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09191644125283455</v>
+        <v>0.09942663073889114</v>
       </c>
       <c r="I8" t="n">
-        <v>0.012577715390533241</v>
+        <v>0.017030007733732686</v>
       </c>
       <c r="J8" t="n">
-        <v>0.012692334971249627</v>
+        <v>0.01783234479874739</v>
       </c>
       <c r="K8" t="n">
-        <v>0.013087364914342764</v>
+        <v>0.020597554400399353</v>
       </c>
     </row>
     <row r="9">
@@ -1751,22 +1751,22 @@
         <v>0.10849313705099367</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2268151839296687</v>
+        <v>0.2287182902740183</v>
       </c>
       <c r="G9" t="n">
-        <v>0.17989187641212898</v>
+        <v>0.18196677340452938</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12486401137310138</v>
+        <v>0.12805640472117413</v>
       </c>
       <c r="I9" t="n">
-        <v>0.016186690464432964</v>
+        <v>0.01808979680878255</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01621123198558308</v>
+        <v>0.018286128977983478</v>
       </c>
       <c r="K9" t="n">
-        <v>0.016370874322107702</v>
+        <v>0.01956326767018046</v>
       </c>
     </row>
     <row r="10">
@@ -1786,22 +1786,22 @@
         <v>0.19596484615011464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.288169597612782</v>
+        <v>0.29040071964001773</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2799438817363919</v>
+        <v>0.2818455149101809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.21201018365581023</v>
+        <v>0.2146250053318345</v>
       </c>
       <c r="I10" t="n">
-        <v>0.015997375049597015</v>
+        <v>0.01822849707683276</v>
       </c>
       <c r="J10" t="n">
-        <v>0.015956188942916172</v>
+        <v>0.01785782211670517</v>
       </c>
       <c r="K10" t="n">
-        <v>0.016045337505695582</v>
+        <v>0.01866015918171987</v>
       </c>
     </row>
     <row r="11">
@@ -1821,22 +1821,22 @@
         <v>0.38685835897295157</v>
       </c>
       <c r="F11" t="n">
-        <v>0.40973876582866564</v>
+        <v>0.4194297881336389</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4125978763973669</v>
+        <v>0.4217402668669335</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3924634800198235</v>
+        <v>0.40178256944167096</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005646446922774812</v>
+        <v>0.015337469227748111</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005585487829951845</v>
+        <v>0.014727878299518448</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005605121046871938</v>
+        <v>0.014924210468719374</v>
       </c>
     </row>
     <row r="12">
@@ -1856,22 +1856,22 @@
         <v>0.3805106914593575</v>
       </c>
       <c r="F12" t="n">
-        <v>0.37991739201412433</v>
+        <v>0.3898490913120772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.38280338931491203</v>
+        <v>0.39239436500549935</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3858094246381016</v>
+        <v>0.39506342309220926</v>
       </c>
       <c r="I12" t="n">
-        <v>0.005366503263128616</v>
+        <v>0.015298202561081446</v>
       </c>
       <c r="J12" t="n">
-        <v>0.005332430902392065</v>
+        <v>0.014923406592979372</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005298733178744101</v>
+        <v>0.01455273163285178</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1926,7 @@
         <v>0.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04677927871417905</v>
+        <v>0.06408813614253714</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -1935,7 +1935,7 @@
         <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04307787871417905</v>
+        <v>0.06038673614253714</v>
       </c>
       <c r="J14" t="n">
         <v>0.0</v>
@@ -1961,19 +1961,19 @@
         <v>0.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.037836191228507426</v>
+        <v>0.04790435614253713</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06552783016677355</v>
+        <v>0.18636255083386777</v>
       </c>
       <c r="H15" t="n">
         <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03450679122850743</v>
+        <v>0.044574956142537134</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06219843016677355</v>
+        <v>0.18303315083386776</v>
       </c>
       <c r="K15" t="n">
         <v>0.0</v>
@@ -1996,19 +1996,19 @@
         <v>0.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.033239159448933873</v>
+        <v>0.043417616142537134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03623921659179102</v>
+        <v>0.05850321614253713</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.031267559448933877</v>
+        <v>0.04144601614253714</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03328181659179102</v>
+        <v>0.05554581614253713</v>
       </c>
       <c r="K16" t="n">
         <v>0.0</v>
@@ -2031,22 +2031,22 @@
         <v>0.0025916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.027276417349170794</v>
+        <v>0.0369988228092038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.029004150682504126</v>
+        <v>0.03872655614253714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.044757616759318636</v>
+        <v>0.18050775083386777</v>
       </c>
       <c r="I17" t="n">
-        <v>0.026412550682504126</v>
+        <v>0.03613495614253714</v>
       </c>
       <c r="J17" t="n">
-        <v>0.026412550682504126</v>
+        <v>0.03613495614253714</v>
       </c>
       <c r="K17" t="n">
-        <v>0.042166016759318636</v>
+        <v>0.17791615083386778</v>
       </c>
     </row>
     <row r="18">
@@ -2066,22 +2066,22 @@
         <v>0.006018</v>
       </c>
       <c r="F18" t="n">
-        <v>0.017620368740230645</v>
+        <v>0.034664056142537134</v>
       </c>
       <c r="G18" t="n">
-        <v>0.017620368740230645</v>
+        <v>0.034664056142537134</v>
       </c>
       <c r="H18" t="n">
-        <v>0.018986777831139737</v>
+        <v>0.049694556142537136</v>
       </c>
       <c r="I18" t="n">
-        <v>0.011602368740230646</v>
+        <v>0.028646056142537134</v>
       </c>
       <c r="J18" t="n">
-        <v>0.011602368740230646</v>
+        <v>0.028646056142537134</v>
       </c>
       <c r="K18" t="n">
-        <v>0.012968777831139738</v>
+        <v>0.04367655614253713</v>
       </c>
     </row>
     <row r="19">
@@ -2101,22 +2101,22 @@
         <v>0.061368000000000006</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07432192739557979</v>
+        <v>0.09256705614253714</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07309526072891312</v>
+        <v>0.09134038947587048</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07064192739557978</v>
+        <v>0.08888705614253714</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009273927395579779</v>
+        <v>0.027519056142537135</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009273927395579779</v>
+        <v>0.027519056142537135</v>
       </c>
       <c r="K19" t="n">
-        <v>0.009273927395579779</v>
+        <v>0.027519056142537135</v>
       </c>
     </row>
     <row r="20">
@@ -2136,22 +2136,22 @@
         <v>0.0981192467651161</v>
       </c>
       <c r="F20" t="n">
-        <v>0.16724937861640962</v>
+        <v>0.18717600434944429</v>
       </c>
       <c r="G20" t="n">
-        <v>0.11916703872740204</v>
+        <v>0.1390936644604367</v>
       </c>
       <c r="H20" t="n">
-        <v>0.10700157717461858</v>
+        <v>0.12692820290765325</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008882330409502476</v>
+        <v>0.028808956142537135</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008882330409502476</v>
+        <v>0.028808956142537135</v>
       </c>
       <c r="K20" t="n">
-        <v>0.008882330409502476</v>
+        <v>0.028808956142537135</v>
       </c>
     </row>
     <row r="21">
@@ -2171,22 +2171,22 @@
         <v>0.19759125342923495</v>
       </c>
       <c r="F21" t="n">
-        <v>0.24480514017593288</v>
+        <v>0.26581846360420314</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2250267546930875</v>
+        <v>0.24604007812135775</v>
       </c>
       <c r="H21" t="n">
-        <v>0.20606908614350183</v>
+        <v>0.2270824095717721</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00847783271426689</v>
+        <v>0.029491156142537136</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00847783271426689</v>
+        <v>0.029491156142537136</v>
       </c>
       <c r="K21" t="n">
-        <v>0.00847783271426689</v>
+        <v>0.029491156142537136</v>
       </c>
     </row>
     <row r="22">
@@ -2206,22 +2206,22 @@
         <v>0.2300029651487684</v>
       </c>
       <c r="F22" t="n">
-        <v>0.23364868558129928</v>
+        <v>0.25346067561107133</v>
       </c>
       <c r="G22" t="n">
-        <v>0.24182488063356722</v>
+        <v>0.26163687066333924</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2379581312615335</v>
+        <v>0.2577701212913055</v>
       </c>
       <c r="I22" t="n">
-        <v>0.007955166112765113</v>
+        <v>0.027767156142537136</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007955166112765113</v>
+        <v>0.027767156142537136</v>
       </c>
       <c r="K22" t="n">
-        <v>0.007955166112765113</v>
+        <v>0.027767156142537136</v>
       </c>
     </row>
     <row r="23">
@@ -2241,22 +2241,22 @@
         <v>0.23351145641202536</v>
       </c>
       <c r="F23" t="n">
-        <v>0.22622868941493376</v>
+        <v>0.24631379050306437</v>
       </c>
       <c r="G23" t="n">
-        <v>0.23440488446720167</v>
+        <v>0.2544899855553323</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2410757114664319</v>
+        <v>0.26116081255456247</v>
       </c>
       <c r="I23" t="n">
-        <v>0.00756425505440653</v>
+        <v>0.027649356142537135</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00756425505440653</v>
+        <v>0.027649356142537135</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00756425505440653</v>
+        <v>0.027649356142537135</v>
       </c>
     </row>
     <row r="24">
@@ -2696,7 +2696,7 @@
         <v>0.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.10166092194842105</v>
+        <v>0.08156797005810723</v>
       </c>
       <c r="G36" t="n">
         <v>0.0</v>
@@ -2705,7 +2705,7 @@
         <v>0.0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.10166092194842105</v>
+        <v>0.08156797005810723</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -2731,19 +2731,19 @@
         <v>0.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03619563179046619</v>
+        <v>0.03447518934582117</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08791327077377203</v>
+        <v>0.1896281062957387</v>
       </c>
       <c r="H37" t="n">
         <v>0.0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03619563179046619</v>
+        <v>0.03447518934582117</v>
       </c>
       <c r="J37" t="n">
-        <v>0.08791327077377203</v>
+        <v>0.1896281062957387</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -2766,19 +2766,19 @@
         <v>0.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.023377761448086346</v>
+        <v>0.025672378321953206</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03347983941985077</v>
+        <v>0.0660806902090109</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.023377761448086346</v>
+        <v>0.025672378321953206</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03347983941985077</v>
+        <v>0.0660806902090109</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -2801,22 +2801,22 @@
         <v>0.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.017692453156191945</v>
+        <v>0.02165367300976149</v>
       </c>
       <c r="G39" t="n">
-        <v>0.019069333156191946</v>
+        <v>0.028538073009761487</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04781642817354446</v>
+        <v>0.17227354809652407</v>
       </c>
       <c r="I39" t="n">
-        <v>0.017692453156191945</v>
+        <v>0.02165367300976149</v>
       </c>
       <c r="J39" t="n">
-        <v>0.019069333156191946</v>
+        <v>0.028538073009761487</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04781642817354446</v>
+        <v>0.17227354809652407</v>
       </c>
     </row>
     <row r="40">
@@ -2836,22 +2836,22 @@
         <v>0.0025000000000000005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.018530657197462157</v>
+        <v>0.021997966421895603</v>
       </c>
       <c r="G40" t="n">
-        <v>0.019169226543560645</v>
+        <v>0.025829382498486556</v>
       </c>
       <c r="H40" t="n">
-        <v>0.025651866034047635</v>
+        <v>0.0647252194414085</v>
       </c>
       <c r="I40" t="n">
-        <v>0.016030657197462155</v>
+        <v>0.019497966421895604</v>
       </c>
       <c r="J40" t="n">
-        <v>0.016669226543560647</v>
+        <v>0.023329382498486553</v>
       </c>
       <c r="K40" t="n">
-        <v>0.023151866034047636</v>
+        <v>0.06222521944140849</v>
       </c>
     </row>
     <row r="41">
@@ -2871,22 +2871,22 @@
         <v>0.010374999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.16358977728037535</v>
+        <v>0.16262844096262752</v>
       </c>
       <c r="G41" t="n">
-        <v>0.030558636022524517</v>
+        <v>0.03166045215767163</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03150944013751822</v>
+        <v>0.038316080962627515</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01983977728037536</v>
+        <v>0.018878440962627516</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02018363602252452</v>
+        <v>0.021285452157671633</v>
       </c>
       <c r="K41" t="n">
-        <v>0.021134440137518216</v>
+        <v>0.027941080962627516</v>
       </c>
     </row>
     <row r="42">
@@ -2906,22 +2906,22 @@
         <v>0.02436178012952881</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2566826762428555</v>
+        <v>0.24647490865118427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06673445763229069</v>
+        <v>0.057042061984771894</v>
       </c>
       <c r="H42" t="n">
-        <v>0.056282533578034775</v>
+        <v>0.04994262699753305</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03136820187548175</v>
+        <v>0.021160434283810516</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0314418264389321</v>
+        <v>0.021749430791413293</v>
       </c>
       <c r="K42" t="n">
-        <v>0.031920753448505965</v>
+        <v>0.025580846868004242</v>
       </c>
     </row>
     <row r="43">
@@ -2941,22 +2941,22 @@
         <v>0.14145858143986056</v>
       </c>
       <c r="F43" t="n">
-        <v>0.32956878125506134</v>
+        <v>0.31896245298784665</v>
       </c>
       <c r="G43" t="n">
-        <v>0.32552235059459333</v>
+        <v>0.3139275557670384</v>
       </c>
       <c r="H43" t="n">
-        <v>0.17310313216333206</v>
+        <v>0.16364790284248304</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03150066335517581</v>
+        <v>0.020894335087961142</v>
       </c>
       <c r="J43" t="n">
-        <v>0.031377105035133274</v>
+        <v>0.01978231020757837</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03164455072347151</v>
+        <v>0.022189321402622482</v>
       </c>
     </row>
     <row r="44">
@@ -2976,22 +2976,22 @@
         <v>0.22092445215974643</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2726569405792574</v>
+        <v>0.28520766696589384</v>
       </c>
       <c r="G44" t="n">
-        <v>0.27247406330078844</v>
+        <v>0.2833788941812049</v>
       </c>
       <c r="H44" t="n">
-        <v>0.22219499968610854</v>
+        <v>0.2336299274233674</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0013945251540707201</v>
+        <v>0.0139452515407072</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0012116478756018206</v>
+        <v>0.012116478756018206</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0012705475263620986</v>
+        <v>0.012705475263620987</v>
       </c>
     </row>
     <row r="45">
@@ -3011,22 +3011,22 @@
         <v>0.2548617981829562</v>
       </c>
       <c r="F45" t="n">
-        <v>0.25382901640812683</v>
+        <v>0.2665065178087697</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2537267993259172</v>
+        <v>0.2653821299044635</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2559262380698669</v>
+        <v>0.26657063693897437</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0012677501400642909</v>
+        <v>0.0139452515407072</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0011655330578546346</v>
+        <v>0.01282086363640098</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001064439886910746</v>
+        <v>0.011708838756018206</v>
       </c>
     </row>
   </sheetData>
